--- a/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1742913376395199</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.218223450470802</v>
+        <v>0.2182234504708019</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1174054823054194</v>
+        <v>0.1178738248142543</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1605048640588207</v>
+        <v>0.1620815319443145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1285702346872471</v>
+        <v>0.1261756124834645</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1817249387063791</v>
+        <v>0.1776326108559972</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1396061822966126</v>
+        <v>0.1409851736634995</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.209585408962654</v>
+        <v>0.2117602576154377</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1651438610737152</v>
+        <v>0.1675174607266557</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2075781399216421</v>
+        <v>0.206516261029748</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1354732911951275</v>
+        <v>0.1332873620483714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1915076959484569</v>
+        <v>0.1941225713680504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1530084960160509</v>
+        <v>0.1543895407816626</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.200411793381985</v>
+        <v>0.1988966646319842</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1678405651268572</v>
+        <v>0.1684386461922895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.220368087992841</v>
+        <v>0.22605951867147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1857879410543895</v>
+        <v>0.1816970746549811</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2360268087782686</v>
+        <v>0.2404408353543242</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1946772183868435</v>
+        <v>0.1947036609803836</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.274930212520098</v>
+        <v>0.2752060319707755</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2286711460483547</v>
+        <v>0.2301054318808852</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2511162816516542</v>
+        <v>0.2503820045610661</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1743752750398178</v>
+        <v>0.1722408784018631</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2381961484317767</v>
+        <v>0.2382493972722924</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1931156310534765</v>
+        <v>0.1949200574171767</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2377527179082912</v>
+        <v>0.2361456819977814</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1058426253655899</v>
+        <v>0.1067110106370505</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1264794088787983</v>
+        <v>0.1251349356665443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1227423145219907</v>
+        <v>0.1199862058521565</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1443074124726565</v>
+        <v>0.1443710005229893</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.153083924648348</v>
+        <v>0.152446817460186</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1620090268924953</v>
+        <v>0.1605810917204637</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1430079691537417</v>
+        <v>0.1410622524195719</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1678907585059482</v>
+        <v>0.1685477819924412</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1353703133806649</v>
+        <v>0.136342262148314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1512228160571575</v>
+        <v>0.1516150242611688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1388586720132163</v>
+        <v>0.1392928676218593</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1609274543435683</v>
+        <v>0.1622808249752357</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1479309847520487</v>
+        <v>0.1479073313733545</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1722276163174367</v>
+        <v>0.1721019789243722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1694340725800734</v>
+        <v>0.1663926646212232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1877852745338757</v>
+        <v>0.1888071014598016</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2011055394874506</v>
+        <v>0.2012749424116428</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2126221934354534</v>
+        <v>0.211233417561313</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1943939766313872</v>
+        <v>0.1925425289784042</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2041642252254201</v>
+        <v>0.2062732322047457</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1673344189877324</v>
+        <v>0.167226240874044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1839935573657405</v>
+        <v>0.1882681592074284</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1706762205984069</v>
+        <v>0.1738989958971204</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1894853108506806</v>
+        <v>0.1915160140490653</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1045465460539488</v>
+        <v>0.1041803851454697</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1228849508096672</v>
+        <v>0.1250302792570866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1214522318756907</v>
+        <v>0.1192635911969531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1702526928144779</v>
+        <v>0.1664416959685626</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1418318121446408</v>
+        <v>0.1385519931722099</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1510420701781926</v>
+        <v>0.1486361754701589</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1581340247185603</v>
+        <v>0.156029269974214</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1490900017047217</v>
+        <v>0.1499434271790274</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1300469210090928</v>
+        <v>0.1290327537674326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1415514131586622</v>
+        <v>0.1441849387059306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1468311955131045</v>
+        <v>0.14644499725059</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1643397782875843</v>
+        <v>0.1644916883368698</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1567112427040399</v>
+        <v>0.1565856859406624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1767593466173129</v>
+        <v>0.177029944817498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1727733447889342</v>
+        <v>0.1704926055909017</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2244417156032108</v>
+        <v>0.2216714133382051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1978342627730632</v>
+        <v>0.1992157158107693</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2077872994348983</v>
+        <v>0.2064416629320368</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.218011063370089</v>
+        <v>0.2136891051827766</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1922953507664819</v>
+        <v>0.1930829070984154</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1679563567191601</v>
+        <v>0.1686254302360328</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1828472559525843</v>
+        <v>0.1829184174856207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.185156769411656</v>
+        <v>0.1853598493613661</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1999471196286502</v>
+        <v>0.1995147869331157</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09552730725342232</v>
+        <v>0.09556119380010182</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1560457357744542</v>
+        <v>0.1586235091992098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.130024554031227</v>
+        <v>0.1299746017101766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.170307345478809</v>
+        <v>0.1695305515331708</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1353470643144423</v>
+        <v>0.1374771208616242</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2069722578336737</v>
+        <v>0.2089244874863483</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1470404804729071</v>
+        <v>0.1468383228719477</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2146552918073371</v>
+        <v>0.2120885195226927</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1222122634714986</v>
+        <v>0.1217390087277857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1912368538596922</v>
+        <v>0.1906676913180887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1458489876209336</v>
+        <v>0.1457741426873953</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1990969514787421</v>
+        <v>0.1994050940016944</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1334477564422133</v>
+        <v>0.1333197692930251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2091770863913118</v>
+        <v>0.2095823957461721</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.175027574737391</v>
+        <v>0.1796609309173733</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2175830947943531</v>
+        <v>0.215630930916422</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1797555186043976</v>
+        <v>0.182187684135185</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2619047584722875</v>
+        <v>0.2635664771084477</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1982125221864706</v>
+        <v>0.1991266564001228</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2559198807318298</v>
+        <v>0.2543085677272682</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1513990971315374</v>
+        <v>0.1537211871857934</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2304181293912312</v>
+        <v>0.2291259713584856</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1791462706473455</v>
+        <v>0.1788587217493117</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2296588337513114</v>
+        <v>0.2297504647816226</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1483606250497135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.187796010631028</v>
+        <v>0.1877960106310279</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1667212087860317</v>
@@ -1241,7 +1241,7 @@
         <v>0.1632986565693131</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1967788046879843</v>
+        <v>0.1967788046879842</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.154210031930439</v>
+        <v>0.150350976944291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1370669327622598</v>
+        <v>0.1374089668870654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1750227934358431</v>
+        <v>0.1762513565262139</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.193969569612159</v>
+        <v>0.1966468755524213</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.163679838705307</v>
+        <v>0.1649119799062983</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1945448447457685</v>
+        <v>0.1944291555416998</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1779861242379628</v>
+        <v>0.1788897491775781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1546243970722453</v>
+        <v>0.1543057590977272</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1886385343941576</v>
+        <v>0.1889832158006785</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1798397490374349</v>
+        <v>0.1787000417900621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1620158065290756</v>
+        <v>0.1615976509356556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2002732370917117</v>
+        <v>0.2010529655499251</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2229966806479228</v>
+        <v>0.2235727193707665</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1928606882783192</v>
+        <v>0.1916597855280309</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2147840256747564</v>
+        <v>0.21552720684233</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1975497307028977</v>
+        <v>0.1979334361481288</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1726040855302522</v>
+        <v>0.1719163951746582</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2046487360578197</v>
+        <v>0.2048057457887411</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>81361</v>
+        <v>81686</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>112607</v>
+        <v>113713</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86759</v>
+        <v>85143</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125519</v>
+        <v>122693</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>96098</v>
+        <v>97047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>145731</v>
+        <v>147243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>111115</v>
+        <v>112712</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>152178</v>
+        <v>151400</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>187135</v>
+        <v>184116</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>267519</v>
+        <v>271172</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>206200</v>
+        <v>208061</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>285351</v>
+        <v>283194</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>116313</v>
+        <v>116727</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>154606</v>
+        <v>158599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>125370</v>
+        <v>122609</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>163026</v>
+        <v>166075</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>134006</v>
+        <v>134024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>191167</v>
+        <v>191359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>153859</v>
+        <v>154824</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>184097</v>
+        <v>183558</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>240872</v>
+        <v>237924</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>332739</v>
+        <v>332813</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>260250</v>
+        <v>262682</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>338518</v>
+        <v>336230</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>101799</v>
+        <v>102635</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>128749</v>
+        <v>127381</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>125496</v>
+        <v>122678</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>151366</v>
+        <v>151433</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>148245</v>
+        <v>147628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>166327</v>
+        <v>164861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>149145</v>
+        <v>147116</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>179784</v>
+        <v>180487</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>261291</v>
+        <v>263167</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>309190</v>
+        <v>309992</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>286791</v>
+        <v>287688</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>341127</v>
+        <v>343996</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>142280</v>
+        <v>142257</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>175319</v>
+        <v>175191</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>173235</v>
+        <v>170125</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>196971</v>
+        <v>198043</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>194749</v>
+        <v>194913</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>218289</v>
+        <v>216863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>202736</v>
+        <v>200805</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>218627</v>
+        <v>220885</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>322988</v>
+        <v>322779</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>376193</v>
+        <v>384933</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>352505</v>
+        <v>359161</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>401662</v>
+        <v>405967</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>70936</v>
+        <v>70687</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92967</v>
+        <v>94590</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>92249</v>
+        <v>90587</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>136400</v>
+        <v>133347</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>96990</v>
+        <v>94748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>117251</v>
+        <v>115384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>124137</v>
+        <v>122485</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>121011</v>
+        <v>121704</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>177169</v>
+        <v>175788</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>216973</v>
+        <v>221010</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>226790</v>
+        <v>226194</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>265051</v>
+        <v>265296</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106330</v>
+        <v>106245</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>133725</v>
+        <v>133930</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>131230</v>
+        <v>129498</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>179814</v>
+        <v>177595</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>135287</v>
+        <v>136232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>161302</v>
+        <v>160257</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>171141</v>
+        <v>167748</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>156079</v>
+        <v>156718</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>228815</v>
+        <v>229727</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>280272</v>
+        <v>280381</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>285986</v>
+        <v>286300</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>322480</v>
+        <v>321783</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>90008</v>
+        <v>90040</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>147608</v>
+        <v>150047</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>121907</v>
+        <v>121860</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>168615</v>
+        <v>167846</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>140573</v>
+        <v>142785</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>217065</v>
+        <v>219112</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>153478</v>
+        <v>153267</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>239777</v>
+        <v>236909</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>242082</v>
+        <v>241145</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>381459</v>
+        <v>380324</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>288977</v>
+        <v>288829</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>419516</v>
+        <v>420165</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>125737</v>
+        <v>125617</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>197867</v>
+        <v>198250</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>164100</v>
+        <v>168444</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>215421</v>
+        <v>213488</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>186696</v>
+        <v>189222</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>274676</v>
+        <v>276419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>206890</v>
+        <v>207844</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>285870</v>
+        <v>284071</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>299896</v>
+        <v>304496</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>459614</v>
+        <v>457036</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>354951</v>
+        <v>354381</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>483913</v>
+        <v>484106</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>527706</v>
+        <v>514500</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>465253</v>
+        <v>466414</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>617980</v>
+        <v>622317</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>688015</v>
+        <v>697512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>580170</v>
+        <v>584537</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>726167</v>
+        <v>725735</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1240389</v>
+        <v>1246686</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1072922</v>
+        <v>1070711</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1370175</v>
+        <v>1372679</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>615411</v>
+        <v>611510</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>549938</v>
+        <v>548519</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>707135</v>
+        <v>709888</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>790975</v>
+        <v>793019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>683603</v>
+        <v>679346</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>801713</v>
+        <v>804487</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1376728</v>
+        <v>1379402</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1197681</v>
+        <v>1192909</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1486465</v>
+        <v>1487606</v>
       </c>
     </row>
     <row r="24">
